--- a/Code/Results/Cases/Case_3_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9906695973916231</v>
+        <v>1.021616792383537</v>
       </c>
       <c r="D2">
-        <v>1.009848604803347</v>
+        <v>1.025696095741601</v>
       </c>
       <c r="E2">
-        <v>1.003847311630212</v>
+        <v>1.031928447658045</v>
       </c>
       <c r="F2">
-        <v>1.004783471152084</v>
+        <v>1.041801997353794</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038844451776606</v>
+        <v>1.027832697688146</v>
       </c>
       <c r="J2">
-        <v>1.013133006201273</v>
+        <v>1.02680725291164</v>
       </c>
       <c r="K2">
-        <v>1.021172417100302</v>
+        <v>1.028520911784655</v>
       </c>
       <c r="L2">
-        <v>1.015253306254956</v>
+        <v>1.034735149187548</v>
       </c>
       <c r="M2">
-        <v>1.016176564473494</v>
+        <v>1.04458048283546</v>
       </c>
       <c r="N2">
-        <v>1.008338754481529</v>
+        <v>1.012994564615598</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9947243414698936</v>
+        <v>1.022478545607231</v>
       </c>
       <c r="D3">
-        <v>1.012583661089366</v>
+        <v>1.026291006740529</v>
       </c>
       <c r="E3">
-        <v>1.007512589073378</v>
+        <v>1.032768085685541</v>
       </c>
       <c r="F3">
-        <v>1.009464321814219</v>
+        <v>1.042894080136704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03952946261319</v>
+        <v>1.027915529060431</v>
       </c>
       <c r="J3">
-        <v>1.015359866818239</v>
+        <v>1.027307158528469</v>
       </c>
       <c r="K3">
-        <v>1.02305802418434</v>
+        <v>1.028923756964794</v>
       </c>
       <c r="L3">
-        <v>1.01805023895515</v>
+        <v>1.035383370296776</v>
       </c>
       <c r="M3">
-        <v>1.019977520332148</v>
+        <v>1.04548252944582</v>
       </c>
       <c r="N3">
-        <v>1.009089501325645</v>
+        <v>1.013161640491678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9972977233716984</v>
+        <v>1.023036663794276</v>
       </c>
       <c r="D4">
-        <v>1.014321205032599</v>
+        <v>1.026676104288073</v>
       </c>
       <c r="E4">
-        <v>1.009844352236784</v>
+        <v>1.033312285640823</v>
       </c>
       <c r="F4">
-        <v>1.012442337962373</v>
+        <v>1.043602146304488</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039953181258322</v>
+        <v>1.027967788805203</v>
       </c>
       <c r="J4">
-        <v>1.016770807167826</v>
+        <v>1.027630510290402</v>
       </c>
       <c r="K4">
-        <v>1.024249804622354</v>
+        <v>1.029183879117328</v>
       </c>
       <c r="L4">
-        <v>1.019825398988065</v>
+        <v>1.035803066348813</v>
       </c>
       <c r="M4">
-        <v>1.022392878947302</v>
+        <v>1.046067036761177</v>
       </c>
       <c r="N4">
-        <v>1.009564976537719</v>
+        <v>1.013269661216159</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9983679223717568</v>
+        <v>1.023271416552431</v>
       </c>
       <c r="D5">
-        <v>1.015044155962564</v>
+        <v>1.0268380336289</v>
       </c>
       <c r="E5">
-        <v>1.010815381200172</v>
+        <v>1.033541280854657</v>
       </c>
       <c r="F5">
-        <v>1.013682571606356</v>
+        <v>1.043900154979096</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040126705669948</v>
+        <v>1.027989437951995</v>
       </c>
       <c r="J5">
-        <v>1.017356984505361</v>
+        <v>1.027766417418158</v>
       </c>
       <c r="K5">
-        <v>1.024744205068767</v>
+        <v>1.029293102681622</v>
       </c>
       <c r="L5">
-        <v>1.020563631941252</v>
+        <v>1.035979566145552</v>
       </c>
       <c r="M5">
-        <v>1.023398086574655</v>
+        <v>1.046312959433943</v>
       </c>
       <c r="N5">
-        <v>1.0097624630402</v>
+        <v>1.013315051523349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9985469413853748</v>
+        <v>1.02331083956457</v>
       </c>
       <c r="D6">
-        <v>1.015165107747743</v>
+        <v>1.026865224242584</v>
       </c>
       <c r="E6">
-        <v>1.010977887956464</v>
+        <v>1.033579742639924</v>
       </c>
       <c r="F6">
-        <v>1.013890137164716</v>
+        <v>1.043950211711486</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040155572956069</v>
+        <v>1.027993054106661</v>
       </c>
       <c r="J6">
-        <v>1.017455002394475</v>
+        <v>1.027789235035051</v>
       </c>
       <c r="K6">
-        <v>1.024826833129149</v>
+        <v>1.029311434036576</v>
       </c>
       <c r="L6">
-        <v>1.020687119814004</v>
+        <v>1.036009204698329</v>
       </c>
       <c r="M6">
-        <v>1.023566276623289</v>
+        <v>1.046354262379904</v>
       </c>
       <c r="N6">
-        <v>1.009795482784387</v>
+        <v>1.013322671476812</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9973120686944136</v>
+        <v>1.023039800102752</v>
       </c>
       <c r="D7">
-        <v>1.014330894396754</v>
+        <v>1.026678267863047</v>
       </c>
       <c r="E7">
-        <v>1.009857363093489</v>
+        <v>1.033315344648757</v>
       </c>
       <c r="F7">
-        <v>1.012458955526398</v>
+        <v>1.043606126985759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039955517913297</v>
+        <v>1.027968079343637</v>
       </c>
       <c r="J7">
-        <v>1.016778666877544</v>
+        <v>1.027632326407147</v>
       </c>
       <c r="K7">
-        <v>1.024256436647331</v>
+        <v>1.029185339087248</v>
       </c>
       <c r="L7">
-        <v>1.019835294579291</v>
+        <v>1.035805424515078</v>
       </c>
       <c r="M7">
-        <v>1.022406350240874</v>
+        <v>1.046070322024105</v>
       </c>
       <c r="N7">
-        <v>1.009567624721756</v>
+        <v>1.013270267809073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9920505764958212</v>
+        <v>1.021907920308049</v>
       </c>
       <c r="D8">
-        <v>1.010779725254781</v>
+        <v>1.025897116569366</v>
       </c>
       <c r="E8">
-        <v>1.00509446648186</v>
+        <v>1.032212020460882</v>
       </c>
       <c r="F8">
-        <v>1.006376177320628</v>
+        <v>1.042170777993028</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039080040350336</v>
+        <v>1.027860967553102</v>
       </c>
       <c r="J8">
-        <v>1.013891914824532</v>
+        <v>1.026976222676243</v>
       </c>
       <c r="K8">
-        <v>1.021815631599374</v>
+        <v>1.028657167471569</v>
       </c>
       <c r="L8">
-        <v>1.016205869369954</v>
+        <v>1.034954165336</v>
       </c>
       <c r="M8">
-        <v>1.017470466413249</v>
+        <v>1.044885162617846</v>
       </c>
       <c r="N8">
-        <v>1.008594647090076</v>
+        <v>1.01305104677706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9823752307697178</v>
+        <v>1.01991733895273</v>
       </c>
       <c r="D9">
-        <v>1.004265845397382</v>
+        <v>1.024521853055343</v>
       </c>
       <c r="E9">
-        <v>0.996381187687434</v>
+        <v>1.030274763236917</v>
       </c>
       <c r="F9">
-        <v>0.9952476448239261</v>
+        <v>1.039652406045211</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037384509932811</v>
+        <v>1.027662004447214</v>
       </c>
       <c r="J9">
-        <v>1.008566093409911</v>
+        <v>1.02581920818236</v>
       </c>
       <c r="K9">
-        <v>1.017290089314456</v>
+        <v>1.02772233434898</v>
       </c>
       <c r="L9">
-        <v>1.009533251730094</v>
+        <v>1.033456131285591</v>
       </c>
       <c r="M9">
-        <v>1.008418299137135</v>
+        <v>1.042803115058044</v>
       </c>
       <c r="N9">
-        <v>1.006798131550498</v>
+        <v>1.012664091254353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9756258533977028</v>
+        <v>1.018593008703463</v>
       </c>
       <c r="D10">
-        <v>0.9997369417141833</v>
+        <v>1.023605933053521</v>
       </c>
       <c r="E10">
-        <v>0.9903351165336728</v>
+        <v>1.028988010033048</v>
       </c>
       <c r="F10">
-        <v>0.987522274230459</v>
+        <v>1.03798089033994</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036146556996976</v>
+        <v>1.027522527952191</v>
       </c>
       <c r="J10">
-        <v>1.00484105312097</v>
+        <v>1.025047340361202</v>
       </c>
       <c r="K10">
-        <v>1.014110947384504</v>
+        <v>1.027096406596848</v>
       </c>
       <c r="L10">
-        <v>1.004881093954307</v>
+        <v>1.032458850127937</v>
       </c>
       <c r="M10">
-        <v>1.002120532723286</v>
+        <v>1.041419426324265</v>
       </c>
       <c r="N10">
-        <v>1.005540793609883</v>
+        <v>1.012405701359792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9726257140917565</v>
+        <v>1.018020221405071</v>
       </c>
       <c r="D11">
-        <v>0.9977283285721419</v>
+        <v>1.023209569159728</v>
       </c>
       <c r="E11">
-        <v>0.9876556161180857</v>
+        <v>1.028431976471061</v>
       </c>
       <c r="F11">
-        <v>0.9840970464675032</v>
+        <v>1.03725887556717</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035583817102512</v>
+        <v>1.027460519578512</v>
       </c>
       <c r="J11">
-        <v>1.003183365114099</v>
+        <v>1.024713001998317</v>
       </c>
       <c r="K11">
-        <v>1.012693212821084</v>
+        <v>1.026824745758826</v>
       </c>
       <c r="L11">
-        <v>1.002814145597214</v>
+        <v>1.032027364574016</v>
       </c>
       <c r="M11">
-        <v>0.9993252326844058</v>
+        <v>1.040821318526489</v>
       </c>
       <c r="N11">
-        <v>1.004981113595142</v>
+        <v>1.012293721250572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9714990612085485</v>
+        <v>1.017807562600518</v>
       </c>
       <c r="D12">
-        <v>0.9969747876467444</v>
+        <v>1.023062379019993</v>
       </c>
       <c r="E12">
-        <v>0.9866506122995025</v>
+        <v>1.028225613399036</v>
       </c>
       <c r="F12">
-        <v>0.9828120547365644</v>
+        <v>1.036990953118949</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035370671702881</v>
+        <v>1.027437244987849</v>
       </c>
       <c r="J12">
-        <v>1.002560603785838</v>
+        <v>1.024588797704552</v>
       </c>
       <c r="K12">
-        <v>1.012160176363386</v>
+        <v>1.026723745334904</v>
       </c>
       <c r="L12">
-        <v>1.002038113649959</v>
+        <v>1.031867144398527</v>
       </c>
       <c r="M12">
-        <v>0.9982761270679225</v>
+        <v>1.040599311838992</v>
       </c>
       <c r="N12">
-        <v>1.004770833665996</v>
+        <v>1.012252112895999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9717412973924561</v>
+        <v>1.01785317409466</v>
       </c>
       <c r="D13">
-        <v>0.9971367670997014</v>
+        <v>1.023093950100774</v>
       </c>
       <c r="E13">
-        <v>0.9868666367798051</v>
+        <v>1.028269871147447</v>
       </c>
       <c r="F13">
-        <v>0.9830882763205421</v>
+        <v>1.037048411338108</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035416580303282</v>
+        <v>1.027442248404534</v>
       </c>
       <c r="J13">
-        <v>1.00269451106028</v>
+        <v>1.024615440660449</v>
       </c>
       <c r="K13">
-        <v>1.012274809424188</v>
+        <v>1.026745414480895</v>
       </c>
       <c r="L13">
-        <v>1.00220495602876</v>
+        <v>1.031901509763981</v>
       </c>
       <c r="M13">
-        <v>0.9985016618955458</v>
+        <v>1.040646925895897</v>
       </c>
       <c r="N13">
-        <v>1.004816049239821</v>
+        <v>1.012261038654362</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725328385169871</v>
+        <v>1.018002640916579</v>
       </c>
       <c r="D14">
-        <v>0.9976661945102929</v>
+        <v>1.023197401611203</v>
       </c>
       <c r="E14">
-        <v>0.9875727432970983</v>
+        <v>1.02841491490697</v>
       </c>
       <c r="F14">
-        <v>0.9839910919933964</v>
+        <v>1.037236723581129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035566283105899</v>
+        <v>1.027458600625291</v>
       </c>
       <c r="J14">
-        <v>1.003132032542058</v>
+        <v>1.024702735555736</v>
       </c>
       <c r="K14">
-        <v>1.012649284436856</v>
+        <v>1.026816398932825</v>
       </c>
       <c r="L14">
-        <v>1.00275016966788</v>
+        <v>1.032014119641308</v>
       </c>
       <c r="M14">
-        <v>0.9992387369966405</v>
+        <v>1.040802964171377</v>
       </c>
       <c r="N14">
-        <v>1.004963781141156</v>
+        <v>1.012290282173369</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9730188887344073</v>
+        <v>1.018094745634821</v>
       </c>
       <c r="D15">
-        <v>0.997991395202472</v>
+        <v>1.023261146461776</v>
       </c>
       <c r="E15">
-        <v>0.9880064963236073</v>
+        <v>1.028504304061304</v>
       </c>
       <c r="F15">
-        <v>0.9845456413824757</v>
+        <v>1.037352784250339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035657970830238</v>
+        <v>1.027468643728984</v>
       </c>
       <c r="J15">
-        <v>1.003400664055308</v>
+        <v>1.024756518715009</v>
       </c>
       <c r="K15">
-        <v>1.012879151653453</v>
+        <v>1.026860122442272</v>
       </c>
       <c r="L15">
-        <v>1.003084985365135</v>
+        <v>1.032083509329661</v>
       </c>
       <c r="M15">
-        <v>0.9996914245045256</v>
+        <v>1.040899125365033</v>
       </c>
       <c r="N15">
-        <v>1.005054483876804</v>
+        <v>1.01230829823334</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9758232766096421</v>
+        <v>1.018631036649519</v>
       </c>
       <c r="D16">
-        <v>0.9998692188542306</v>
+        <v>1.023632243524825</v>
       </c>
       <c r="E16">
-        <v>0.9905116101686392</v>
+        <v>1.029024936269165</v>
       </c>
       <c r="F16">
-        <v>0.9877478511139728</v>
+        <v>1.038028845318304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036183332661933</v>
+        <v>1.027526609285791</v>
       </c>
       <c r="J16">
-        <v>1.004950100739013</v>
+        <v>1.025069526975546</v>
       </c>
       <c r="K16">
-        <v>1.014204150307002</v>
+        <v>1.027114422657494</v>
       </c>
       <c r="L16">
-        <v>1.005017131574908</v>
+        <v>1.032487493741775</v>
       </c>
       <c r="M16">
-        <v>1.002304562604842</v>
+        <v>1.041459142748039</v>
       </c>
       <c r="N16">
-        <v>1.005577608194268</v>
+        <v>1.012413131131553</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9775611992585669</v>
+        <v>1.01896761448342</v>
       </c>
       <c r="D17">
-        <v>1.001034182494856</v>
+        <v>1.023865087145334</v>
       </c>
       <c r="E17">
-        <v>0.9920662063099889</v>
+        <v>1.029351821059544</v>
       </c>
       <c r="F17">
-        <v>0.9897346058370763</v>
+        <v>1.038453393284052</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036505656596364</v>
+        <v>1.027562537812468</v>
       </c>
       <c r="J17">
-        <v>1.005909840197813</v>
+        <v>1.025265838882734</v>
       </c>
       <c r="K17">
-        <v>1.015024103011745</v>
+        <v>1.027273770613996</v>
       </c>
       <c r="L17">
-        <v>1.006214788540315</v>
+        <v>1.032740995319694</v>
       </c>
       <c r="M17">
-        <v>1.003925050910029</v>
+        <v>1.041810705716674</v>
       </c>
       <c r="N17">
-        <v>1.005901600597766</v>
+        <v>1.012478864734606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978567454496632</v>
+        <v>1.019163997890344</v>
       </c>
       <c r="D18">
-        <v>1.001709118092998</v>
+        <v>1.024000923501011</v>
       </c>
       <c r="E18">
-        <v>0.992967074687035</v>
+        <v>1.029542597235513</v>
       </c>
       <c r="F18">
-        <v>0.9908857665868023</v>
+        <v>1.03870119491138</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036691094351504</v>
+        <v>1.027583338534726</v>
       </c>
       <c r="J18">
-        <v>1.006465346549756</v>
+        <v>1.025380333177665</v>
       </c>
       <c r="K18">
-        <v>1.015498415003315</v>
+        <v>1.027366654718616</v>
       </c>
       <c r="L18">
-        <v>1.006908319989539</v>
+        <v>1.032888891594376</v>
       </c>
       <c r="M18">
-        <v>1.004863700269119</v>
+        <v>1.042015866576519</v>
       </c>
       <c r="N18">
-        <v>1.006089116075902</v>
+        <v>1.012517196784025</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9789093164069143</v>
+        <v>1.019230970246692</v>
       </c>
       <c r="D19">
-        <v>1.001938487868363</v>
+        <v>1.024047243972197</v>
       </c>
       <c r="E19">
-        <v>0.9932732605531638</v>
+        <v>1.029607665563668</v>
       </c>
       <c r="F19">
-        <v>0.9912769998843047</v>
+        <v>1.038785717658518</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036753891352899</v>
+        <v>1.027590404602775</v>
       </c>
       <c r="J19">
-        <v>1.006654040515902</v>
+        <v>1.025419370855088</v>
       </c>
       <c r="K19">
-        <v>1.015659479904562</v>
+        <v>1.027398315439439</v>
       </c>
       <c r="L19">
-        <v>1.00714395237485</v>
+        <v>1.03293932598108</v>
       </c>
       <c r="M19">
-        <v>1.005182659639378</v>
+        <v>1.042085838076519</v>
       </c>
       <c r="N19">
-        <v>1.006152808639988</v>
+        <v>1.012530265441191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.977375511003891</v>
+        <v>1.018931496315599</v>
       </c>
       <c r="D20">
-        <v>1.000909667561764</v>
+        <v>1.023840102877571</v>
       </c>
       <c r="E20">
-        <v>0.9919000265997709</v>
+        <v>1.029316738046912</v>
       </c>
       <c r="F20">
-        <v>0.9895222449526853</v>
+        <v>1.038407825714646</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036471340700325</v>
+        <v>1.027558699130357</v>
       </c>
       <c r="J20">
-        <v>1.005807315458153</v>
+        <v>1.025244777615392</v>
       </c>
       <c r="K20">
-        <v>1.01493654039948</v>
+        <v>1.027256680373251</v>
       </c>
       <c r="L20">
-        <v>1.006086815447056</v>
+        <v>1.032713793568387</v>
       </c>
       <c r="M20">
-        <v>1.003751869570192</v>
+        <v>1.041772975972254</v>
       </c>
       <c r="N20">
-        <v>1.005866991387055</v>
+        <v>1.012471813094856</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9723000931031744</v>
+        <v>1.017958623894828</v>
       </c>
       <c r="D21">
-        <v>0.9975104996135516</v>
+        <v>1.023166936683407</v>
       </c>
       <c r="E21">
-        <v>0.987365084773121</v>
+        <v>1.028372198360279</v>
       </c>
       <c r="F21">
-        <v>0.9837255917873102</v>
+        <v>1.037181262967079</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035522313959545</v>
+        <v>1.027453791977315</v>
       </c>
       <c r="J21">
-        <v>1.003003389752137</v>
+        <v>1.024677029821826</v>
       </c>
       <c r="K21">
-        <v>1.012539190335432</v>
+        <v>1.026795498352557</v>
       </c>
       <c r="L21">
-        <v>1.002589849476682</v>
+        <v>1.031980957373386</v>
       </c>
       <c r="M21">
-        <v>0.9990219895956919</v>
+        <v>1.040757010440235</v>
       </c>
       <c r="N21">
-        <v>1.004920344581795</v>
+        <v>1.012281671067913</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9690376700028326</v>
+        <v>1.017347519025398</v>
       </c>
       <c r="D22">
-        <v>0.9953300240066627</v>
+        <v>1.022743905615136</v>
       </c>
       <c r="E22">
-        <v>0.9844573026468899</v>
+        <v>1.027779327796715</v>
       </c>
       <c r="F22">
-        <v>0.9800071036005619</v>
+        <v>1.036411613788607</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034901734829225</v>
+        <v>1.027386433303233</v>
       </c>
       <c r="J22">
-        <v>1.001199657401227</v>
+        <v>1.024319971399437</v>
       </c>
       <c r="K22">
-        <v>1.010994565192847</v>
+        <v>1.026504994561749</v>
       </c>
       <c r="L22">
-        <v>1.000343082043136</v>
+        <v>1.031520500046637</v>
       </c>
       <c r="M22">
-        <v>0.9959853075653722</v>
+        <v>1.040119142549863</v>
       </c>
       <c r="N22">
-        <v>1.004311269148024</v>
+        <v>1.012162040682839</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9707741144454121</v>
+        <v>1.017671422003243</v>
       </c>
       <c r="D23">
-        <v>0.9964901453703914</v>
+        <v>1.022968141428046</v>
       </c>
       <c r="E23">
-        <v>0.9860042942055175</v>
+        <v>1.028093524529765</v>
       </c>
       <c r="F23">
-        <v>0.9819855874494292</v>
+        <v>1.036819473057037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035233017729766</v>
+        <v>1.02742227386072</v>
       </c>
       <c r="J23">
-        <v>1.002159823229765</v>
+        <v>1.024509263270906</v>
       </c>
       <c r="K23">
-        <v>1.011817023337092</v>
+        <v>1.026659046951015</v>
       </c>
       <c r="L23">
-        <v>1.001538828318443</v>
+        <v>1.031764567818484</v>
       </c>
       <c r="M23">
-        <v>0.9976012548625754</v>
+        <v>1.040457201748744</v>
       </c>
       <c r="N23">
-        <v>1.004635502266382</v>
+        <v>1.012225466513557</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9774594384985673</v>
+        <v>1.018947816365638</v>
       </c>
       <c r="D24">
-        <v>1.000965944594977</v>
+        <v>1.023851392123074</v>
       </c>
       <c r="E24">
-        <v>0.991975134260026</v>
+        <v>1.029332590211053</v>
       </c>
       <c r="F24">
-        <v>0.9896182253788517</v>
+        <v>1.038428415212706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036486854505767</v>
+        <v>1.027560434146966</v>
       </c>
       <c r="J24">
-        <v>1.005853655221</v>
+        <v>1.025254294330002</v>
       </c>
       <c r="K24">
-        <v>1.014976118371802</v>
+        <v>1.027264402905586</v>
       </c>
       <c r="L24">
-        <v>1.00614465653178</v>
+        <v>1.032726084766778</v>
       </c>
       <c r="M24">
-        <v>1.003830142977974</v>
+        <v>1.041790024110418</v>
       </c>
       <c r="N24">
-        <v>1.005882634316079</v>
+        <v>1.012474999455949</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9849271430533141</v>
+        <v>1.020431477549766</v>
       </c>
       <c r="D25">
-        <v>1.005981602230768</v>
+        <v>1.024877236290779</v>
       </c>
       <c r="E25">
-        <v>0.9986739167371097</v>
+        <v>1.030774759382809</v>
       </c>
       <c r="F25">
-        <v>0.9981762652174542</v>
+        <v>1.04030216680145</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037841436182872</v>
+        <v>1.027714648421421</v>
       </c>
       <c r="J25">
-        <v>1.009972638840552</v>
+        <v>1.026118421359177</v>
       </c>
       <c r="K25">
-        <v>1.01848776580375</v>
+        <v>1.027964493078835</v>
       </c>
       <c r="L25">
-        <v>1.011292853379017</v>
+        <v>1.033843165771968</v>
       </c>
       <c r="M25">
-        <v>1.010802958444747</v>
+        <v>1.043340613951886</v>
       </c>
       <c r="N25">
-        <v>1.007272741093695</v>
+        <v>1.012764204253668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021616792383537</v>
+        <v>0.9906695973916223</v>
       </c>
       <c r="D2">
-        <v>1.025696095741601</v>
+        <v>1.009848604803347</v>
       </c>
       <c r="E2">
-        <v>1.031928447658045</v>
+        <v>1.003847311630211</v>
       </c>
       <c r="F2">
-        <v>1.041801997353794</v>
+        <v>1.004783471152082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027832697688146</v>
+        <v>1.038844451776606</v>
       </c>
       <c r="J2">
-        <v>1.02680725291164</v>
+        <v>1.013133006201272</v>
       </c>
       <c r="K2">
-        <v>1.028520911784655</v>
+        <v>1.021172417100302</v>
       </c>
       <c r="L2">
-        <v>1.034735149187548</v>
+        <v>1.015253306254955</v>
       </c>
       <c r="M2">
-        <v>1.04458048283546</v>
+        <v>1.016176564473493</v>
       </c>
       <c r="N2">
-        <v>1.012994564615598</v>
+        <v>1.008338754481529</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022478545607231</v>
+        <v>0.994724341469894</v>
       </c>
       <c r="D3">
-        <v>1.026291006740529</v>
+        <v>1.012583661089367</v>
       </c>
       <c r="E3">
-        <v>1.032768085685541</v>
+        <v>1.007512589073378</v>
       </c>
       <c r="F3">
-        <v>1.042894080136704</v>
+        <v>1.009464321814219</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027915529060431</v>
+        <v>1.03952946261319</v>
       </c>
       <c r="J3">
-        <v>1.027307158528469</v>
+        <v>1.015359866818239</v>
       </c>
       <c r="K3">
-        <v>1.028923756964794</v>
+        <v>1.02305802418434</v>
       </c>
       <c r="L3">
-        <v>1.035383370296776</v>
+        <v>1.01805023895515</v>
       </c>
       <c r="M3">
-        <v>1.04548252944582</v>
+        <v>1.019977520332148</v>
       </c>
       <c r="N3">
-        <v>1.013161640491678</v>
+        <v>1.009089501325645</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023036663794276</v>
+        <v>0.9972977233716979</v>
       </c>
       <c r="D4">
-        <v>1.026676104288073</v>
+        <v>1.014321205032599</v>
       </c>
       <c r="E4">
-        <v>1.033312285640823</v>
+        <v>1.009844352236783</v>
       </c>
       <c r="F4">
-        <v>1.043602146304488</v>
+        <v>1.012442337962373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027967788805203</v>
+        <v>1.039953181258322</v>
       </c>
       <c r="J4">
-        <v>1.027630510290402</v>
+        <v>1.016770807167826</v>
       </c>
       <c r="K4">
-        <v>1.029183879117328</v>
+        <v>1.024249804622353</v>
       </c>
       <c r="L4">
-        <v>1.035803066348813</v>
+        <v>1.019825398988065</v>
       </c>
       <c r="M4">
-        <v>1.046067036761177</v>
+        <v>1.022392878947302</v>
       </c>
       <c r="N4">
-        <v>1.013269661216159</v>
+        <v>1.009564976537719</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023271416552431</v>
+        <v>0.998367922371757</v>
       </c>
       <c r="D5">
-        <v>1.0268380336289</v>
+        <v>1.015044155962563</v>
       </c>
       <c r="E5">
-        <v>1.033541280854657</v>
+        <v>1.010815381200172</v>
       </c>
       <c r="F5">
-        <v>1.043900154979096</v>
+        <v>1.013682571606356</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027989437951995</v>
+        <v>1.040126705669948</v>
       </c>
       <c r="J5">
-        <v>1.027766417418158</v>
+        <v>1.017356984505361</v>
       </c>
       <c r="K5">
-        <v>1.029293102681622</v>
+        <v>1.024744205068767</v>
       </c>
       <c r="L5">
-        <v>1.035979566145552</v>
+        <v>1.020563631941252</v>
       </c>
       <c r="M5">
-        <v>1.046312959433943</v>
+        <v>1.023398086574655</v>
       </c>
       <c r="N5">
-        <v>1.013315051523349</v>
+        <v>1.0097624630402</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02331083956457</v>
+        <v>0.9985469413853744</v>
       </c>
       <c r="D6">
-        <v>1.026865224242584</v>
+        <v>1.015165107747743</v>
       </c>
       <c r="E6">
-        <v>1.033579742639924</v>
+        <v>1.010977887956463</v>
       </c>
       <c r="F6">
-        <v>1.043950211711486</v>
+        <v>1.013890137164716</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027993054106661</v>
+        <v>1.040155572956069</v>
       </c>
       <c r="J6">
-        <v>1.027789235035051</v>
+        <v>1.017455002394475</v>
       </c>
       <c r="K6">
-        <v>1.029311434036576</v>
+        <v>1.024826833129149</v>
       </c>
       <c r="L6">
-        <v>1.036009204698329</v>
+        <v>1.020687119814004</v>
       </c>
       <c r="M6">
-        <v>1.046354262379904</v>
+        <v>1.023566276623288</v>
       </c>
       <c r="N6">
-        <v>1.013322671476812</v>
+        <v>1.009795482784387</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023039800102752</v>
+        <v>0.9973120686944136</v>
       </c>
       <c r="D7">
-        <v>1.026678267863047</v>
+        <v>1.014330894396754</v>
       </c>
       <c r="E7">
-        <v>1.033315344648757</v>
+        <v>1.009857363093489</v>
       </c>
       <c r="F7">
-        <v>1.043606126985759</v>
+        <v>1.012458955526398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027968079343637</v>
+        <v>1.039955517913297</v>
       </c>
       <c r="J7">
-        <v>1.027632326407147</v>
+        <v>1.016778666877544</v>
       </c>
       <c r="K7">
-        <v>1.029185339087248</v>
+        <v>1.024256436647331</v>
       </c>
       <c r="L7">
-        <v>1.035805424515078</v>
+        <v>1.019835294579291</v>
       </c>
       <c r="M7">
-        <v>1.046070322024105</v>
+        <v>1.022406350240874</v>
       </c>
       <c r="N7">
-        <v>1.013270267809073</v>
+        <v>1.009567624721756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021907920308049</v>
+        <v>0.9920505764958211</v>
       </c>
       <c r="D8">
-        <v>1.025897116569366</v>
+        <v>1.010779725254781</v>
       </c>
       <c r="E8">
-        <v>1.032212020460882</v>
+        <v>1.00509446648186</v>
       </c>
       <c r="F8">
-        <v>1.042170777993028</v>
+        <v>1.006376177320627</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027860967553102</v>
+        <v>1.039080040350336</v>
       </c>
       <c r="J8">
-        <v>1.026976222676243</v>
+        <v>1.013891914824532</v>
       </c>
       <c r="K8">
-        <v>1.028657167471569</v>
+        <v>1.021815631599374</v>
       </c>
       <c r="L8">
-        <v>1.034954165336</v>
+        <v>1.016205869369954</v>
       </c>
       <c r="M8">
-        <v>1.044885162617846</v>
+        <v>1.017470466413249</v>
       </c>
       <c r="N8">
-        <v>1.01305104677706</v>
+        <v>1.008594647090076</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01991733895273</v>
+        <v>0.9823752307697167</v>
       </c>
       <c r="D9">
-        <v>1.024521853055343</v>
+        <v>1.004265845397381</v>
       </c>
       <c r="E9">
-        <v>1.030274763236917</v>
+        <v>0.9963811876874329</v>
       </c>
       <c r="F9">
-        <v>1.039652406045211</v>
+        <v>0.9952476448239248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027662004447214</v>
+        <v>1.037384509932811</v>
       </c>
       <c r="J9">
-        <v>1.02581920818236</v>
+        <v>1.00856609340991</v>
       </c>
       <c r="K9">
-        <v>1.02772233434898</v>
+        <v>1.017290089314456</v>
       </c>
       <c r="L9">
-        <v>1.033456131285591</v>
+        <v>1.009533251730093</v>
       </c>
       <c r="M9">
-        <v>1.042803115058044</v>
+        <v>1.008418299137134</v>
       </c>
       <c r="N9">
-        <v>1.012664091254353</v>
+        <v>1.006798131550498</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018593008703463</v>
+        <v>0.9756258533977028</v>
       </c>
       <c r="D10">
-        <v>1.023605933053521</v>
+        <v>0.999736941714183</v>
       </c>
       <c r="E10">
-        <v>1.028988010033048</v>
+        <v>0.9903351165336729</v>
       </c>
       <c r="F10">
-        <v>1.03798089033994</v>
+        <v>0.987522274230459</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027522527952191</v>
+        <v>1.036146556996976</v>
       </c>
       <c r="J10">
-        <v>1.025047340361202</v>
+        <v>1.004841053120969</v>
       </c>
       <c r="K10">
-        <v>1.027096406596848</v>
+        <v>1.014110947384504</v>
       </c>
       <c r="L10">
-        <v>1.032458850127937</v>
+        <v>1.004881093954307</v>
       </c>
       <c r="M10">
-        <v>1.041419426324265</v>
+        <v>1.002120532723286</v>
       </c>
       <c r="N10">
-        <v>1.012405701359792</v>
+        <v>1.005540793609883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018020221405071</v>
+        <v>0.972625714091756</v>
       </c>
       <c r="D11">
-        <v>1.023209569159728</v>
+        <v>0.9977283285721417</v>
       </c>
       <c r="E11">
-        <v>1.028431976471061</v>
+        <v>0.9876556161180853</v>
       </c>
       <c r="F11">
-        <v>1.03725887556717</v>
+        <v>0.9840970464675026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027460519578512</v>
+        <v>1.035583817102512</v>
       </c>
       <c r="J11">
-        <v>1.024713001998317</v>
+        <v>1.003183365114099</v>
       </c>
       <c r="K11">
-        <v>1.026824745758826</v>
+        <v>1.012693212821084</v>
       </c>
       <c r="L11">
-        <v>1.032027364574016</v>
+        <v>1.002814145597213</v>
       </c>
       <c r="M11">
-        <v>1.040821318526489</v>
+        <v>0.9993252326844053</v>
       </c>
       <c r="N11">
-        <v>1.012293721250572</v>
+        <v>1.004981113595142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017807562600518</v>
+        <v>0.9714990612085482</v>
       </c>
       <c r="D12">
-        <v>1.023062379019993</v>
+        <v>0.9969747876467444</v>
       </c>
       <c r="E12">
-        <v>1.028225613399036</v>
+        <v>0.9866506122995018</v>
       </c>
       <c r="F12">
-        <v>1.036990953118949</v>
+        <v>0.9828120547365635</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027437244987849</v>
+        <v>1.035370671702881</v>
       </c>
       <c r="J12">
-        <v>1.024588797704552</v>
+        <v>1.002560603785838</v>
       </c>
       <c r="K12">
-        <v>1.026723745334904</v>
+        <v>1.012160176363386</v>
       </c>
       <c r="L12">
-        <v>1.031867144398527</v>
+        <v>1.002038113649958</v>
       </c>
       <c r="M12">
-        <v>1.040599311838992</v>
+        <v>0.9982761270679216</v>
       </c>
       <c r="N12">
-        <v>1.012252112895999</v>
+        <v>1.004770833665996</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01785317409466</v>
+        <v>0.9717412973924558</v>
       </c>
       <c r="D13">
-        <v>1.023093950100774</v>
+        <v>0.9971367670997016</v>
       </c>
       <c r="E13">
-        <v>1.028269871147447</v>
+        <v>0.9868666367798048</v>
       </c>
       <c r="F13">
-        <v>1.037048411338108</v>
+        <v>0.9830882763205415</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027442248404534</v>
+        <v>1.035416580303282</v>
       </c>
       <c r="J13">
-        <v>1.024615440660449</v>
+        <v>1.00269451106028</v>
       </c>
       <c r="K13">
-        <v>1.026745414480895</v>
+        <v>1.012274809424188</v>
       </c>
       <c r="L13">
-        <v>1.031901509763981</v>
+        <v>1.00220495602876</v>
       </c>
       <c r="M13">
-        <v>1.040646925895897</v>
+        <v>0.9985016618955451</v>
       </c>
       <c r="N13">
-        <v>1.012261038654362</v>
+        <v>1.004816049239821</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018002640916579</v>
+        <v>0.9725328385169869</v>
       </c>
       <c r="D14">
-        <v>1.023197401611203</v>
+        <v>0.9976661945102927</v>
       </c>
       <c r="E14">
-        <v>1.02841491490697</v>
+        <v>0.9875727432970983</v>
       </c>
       <c r="F14">
-        <v>1.037236723581129</v>
+        <v>0.9839910919933965</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027458600625291</v>
+        <v>1.035566283105899</v>
       </c>
       <c r="J14">
-        <v>1.024702735555736</v>
+        <v>1.003132032542058</v>
       </c>
       <c r="K14">
-        <v>1.026816398932825</v>
+        <v>1.012649284436856</v>
       </c>
       <c r="L14">
-        <v>1.032014119641308</v>
+        <v>1.00275016966788</v>
       </c>
       <c r="M14">
-        <v>1.040802964171377</v>
+        <v>0.9992387369966408</v>
       </c>
       <c r="N14">
-        <v>1.012290282173369</v>
+        <v>1.004963781141156</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018094745634821</v>
+        <v>0.9730188887344071</v>
       </c>
       <c r="D15">
-        <v>1.023261146461776</v>
+        <v>0.9979913952024718</v>
       </c>
       <c r="E15">
-        <v>1.028504304061304</v>
+        <v>0.988006496323607</v>
       </c>
       <c r="F15">
-        <v>1.037352784250339</v>
+        <v>0.9845456413824756</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027468643728984</v>
+        <v>1.035657970830238</v>
       </c>
       <c r="J15">
-        <v>1.024756518715009</v>
+        <v>1.003400664055307</v>
       </c>
       <c r="K15">
-        <v>1.026860122442272</v>
+        <v>1.012879151653453</v>
       </c>
       <c r="L15">
-        <v>1.032083509329661</v>
+        <v>1.003084985365134</v>
       </c>
       <c r="M15">
-        <v>1.040899125365033</v>
+        <v>0.9996914245045254</v>
       </c>
       <c r="N15">
-        <v>1.01230829823334</v>
+        <v>1.005054483876804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018631036649519</v>
+        <v>0.9758232766096411</v>
       </c>
       <c r="D16">
-        <v>1.023632243524825</v>
+        <v>0.9998692188542296</v>
       </c>
       <c r="E16">
-        <v>1.029024936269165</v>
+        <v>0.9905116101686379</v>
       </c>
       <c r="F16">
-        <v>1.038028845318304</v>
+        <v>0.9877478511139715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027526609285791</v>
+        <v>1.036183332661933</v>
       </c>
       <c r="J16">
-        <v>1.025069526975546</v>
+        <v>1.004950100739012</v>
       </c>
       <c r="K16">
-        <v>1.027114422657494</v>
+        <v>1.014204150307001</v>
       </c>
       <c r="L16">
-        <v>1.032487493741775</v>
+        <v>1.005017131574907</v>
       </c>
       <c r="M16">
-        <v>1.041459142748039</v>
+        <v>1.00230456260484</v>
       </c>
       <c r="N16">
-        <v>1.012413131131553</v>
+        <v>1.005577608194268</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01896761448342</v>
+        <v>0.9775611992585668</v>
       </c>
       <c r="D17">
-        <v>1.023865087145334</v>
+        <v>1.001034182494856</v>
       </c>
       <c r="E17">
-        <v>1.029351821059544</v>
+        <v>0.9920662063099885</v>
       </c>
       <c r="F17">
-        <v>1.038453393284052</v>
+        <v>0.9897346058370763</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027562537812468</v>
+        <v>1.036505656596364</v>
       </c>
       <c r="J17">
-        <v>1.025265838882734</v>
+        <v>1.005909840197813</v>
       </c>
       <c r="K17">
-        <v>1.027273770613996</v>
+        <v>1.015024103011745</v>
       </c>
       <c r="L17">
-        <v>1.032740995319694</v>
+        <v>1.006214788540314</v>
       </c>
       <c r="M17">
-        <v>1.041810705716674</v>
+        <v>1.003925050910029</v>
       </c>
       <c r="N17">
-        <v>1.012478864734606</v>
+        <v>1.005901600597766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019163997890344</v>
+        <v>0.978567454496632</v>
       </c>
       <c r="D18">
-        <v>1.024000923501011</v>
+        <v>1.001709118092998</v>
       </c>
       <c r="E18">
-        <v>1.029542597235513</v>
+        <v>0.9929670746870349</v>
       </c>
       <c r="F18">
-        <v>1.03870119491138</v>
+        <v>0.9908857665868019</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027583338534726</v>
+        <v>1.036691094351504</v>
       </c>
       <c r="J18">
-        <v>1.025380333177665</v>
+        <v>1.006465346549756</v>
       </c>
       <c r="K18">
-        <v>1.027366654718616</v>
+        <v>1.015498415003315</v>
       </c>
       <c r="L18">
-        <v>1.032888891594376</v>
+        <v>1.006908319989539</v>
       </c>
       <c r="M18">
-        <v>1.042015866576519</v>
+        <v>1.004863700269119</v>
       </c>
       <c r="N18">
-        <v>1.012517196784025</v>
+        <v>1.006089116075902</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019230970246692</v>
+        <v>0.9789093164069134</v>
       </c>
       <c r="D19">
-        <v>1.024047243972197</v>
+        <v>1.001938487868362</v>
       </c>
       <c r="E19">
-        <v>1.029607665563668</v>
+        <v>0.9932732605531626</v>
       </c>
       <c r="F19">
-        <v>1.038785717658518</v>
+        <v>0.9912769998843034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027590404602775</v>
+        <v>1.036753891352899</v>
       </c>
       <c r="J19">
-        <v>1.025419370855088</v>
+        <v>1.006654040515901</v>
       </c>
       <c r="K19">
-        <v>1.027398315439439</v>
+        <v>1.015659479904562</v>
       </c>
       <c r="L19">
-        <v>1.03293932598108</v>
+        <v>1.007143952374848</v>
       </c>
       <c r="M19">
-        <v>1.042085838076519</v>
+        <v>1.005182659639376</v>
       </c>
       <c r="N19">
-        <v>1.012530265441191</v>
+        <v>1.006152808639988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018931496315599</v>
+        <v>0.9773755110038915</v>
       </c>
       <c r="D20">
-        <v>1.023840102877571</v>
+        <v>1.000909667561764</v>
       </c>
       <c r="E20">
-        <v>1.029316738046912</v>
+        <v>0.9919000265997713</v>
       </c>
       <c r="F20">
-        <v>1.038407825714646</v>
+        <v>0.9895222449526859</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027558699130357</v>
+        <v>1.036471340700325</v>
       </c>
       <c r="J20">
-        <v>1.025244777615392</v>
+        <v>1.005807315458154</v>
       </c>
       <c r="K20">
-        <v>1.027256680373251</v>
+        <v>1.014936540399481</v>
       </c>
       <c r="L20">
-        <v>1.032713793568387</v>
+        <v>1.006086815447056</v>
       </c>
       <c r="M20">
-        <v>1.041772975972254</v>
+        <v>1.003751869570193</v>
       </c>
       <c r="N20">
-        <v>1.012471813094856</v>
+        <v>1.005866991387056</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017958623894828</v>
+        <v>0.9723000931031746</v>
       </c>
       <c r="D21">
-        <v>1.023166936683407</v>
+        <v>0.9975104996135519</v>
       </c>
       <c r="E21">
-        <v>1.028372198360279</v>
+        <v>0.987365084773121</v>
       </c>
       <c r="F21">
-        <v>1.037181262967079</v>
+        <v>0.9837255917873101</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027453791977315</v>
+        <v>1.035522313959546</v>
       </c>
       <c r="J21">
-        <v>1.024677029821826</v>
+        <v>1.003003389752137</v>
       </c>
       <c r="K21">
-        <v>1.026795498352557</v>
+        <v>1.012539190335432</v>
       </c>
       <c r="L21">
-        <v>1.031980957373386</v>
+        <v>1.002589849476682</v>
       </c>
       <c r="M21">
-        <v>1.040757010440235</v>
+        <v>0.9990219895956918</v>
       </c>
       <c r="N21">
-        <v>1.012281671067913</v>
+        <v>1.004920344581795</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017347519025398</v>
+        <v>0.9690376700028321</v>
       </c>
       <c r="D22">
-        <v>1.022743905615136</v>
+        <v>0.9953300240066624</v>
       </c>
       <c r="E22">
-        <v>1.027779327796715</v>
+        <v>0.9844573026468898</v>
       </c>
       <c r="F22">
-        <v>1.036411613788607</v>
+        <v>0.9800071036005615</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027386433303233</v>
+        <v>1.034901734829225</v>
       </c>
       <c r="J22">
-        <v>1.024319971399437</v>
+        <v>1.001199657401226</v>
       </c>
       <c r="K22">
-        <v>1.026504994561749</v>
+        <v>1.010994565192847</v>
       </c>
       <c r="L22">
-        <v>1.031520500046637</v>
+        <v>1.000343082043136</v>
       </c>
       <c r="M22">
-        <v>1.040119142549863</v>
+        <v>0.9959853075653718</v>
       </c>
       <c r="N22">
-        <v>1.012162040682839</v>
+        <v>1.004311269148024</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017671422003243</v>
+        <v>0.9707741144454118</v>
       </c>
       <c r="D23">
-        <v>1.022968141428046</v>
+        <v>0.9964901453703913</v>
       </c>
       <c r="E23">
-        <v>1.028093524529765</v>
+        <v>0.9860042942055171</v>
       </c>
       <c r="F23">
-        <v>1.036819473057037</v>
+        <v>0.9819855874494288</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02742227386072</v>
+        <v>1.035233017729766</v>
       </c>
       <c r="J23">
-        <v>1.024509263270906</v>
+        <v>1.002159823229765</v>
       </c>
       <c r="K23">
-        <v>1.026659046951015</v>
+        <v>1.011817023337092</v>
       </c>
       <c r="L23">
-        <v>1.031764567818484</v>
+        <v>1.001538828318443</v>
       </c>
       <c r="M23">
-        <v>1.040457201748744</v>
+        <v>0.9976012548625749</v>
       </c>
       <c r="N23">
-        <v>1.012225466513557</v>
+        <v>1.004635502266382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018947816365638</v>
+        <v>0.9774594384985673</v>
       </c>
       <c r="D24">
-        <v>1.023851392123074</v>
+        <v>1.000965944594977</v>
       </c>
       <c r="E24">
-        <v>1.029332590211053</v>
+        <v>0.9919751342600259</v>
       </c>
       <c r="F24">
-        <v>1.038428415212706</v>
+        <v>0.9896182253788515</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027560434146966</v>
+        <v>1.036486854505767</v>
       </c>
       <c r="J24">
-        <v>1.025254294330002</v>
+        <v>1.005853655221</v>
       </c>
       <c r="K24">
-        <v>1.027264402905586</v>
+        <v>1.014976118371802</v>
       </c>
       <c r="L24">
-        <v>1.032726084766778</v>
+        <v>1.00614465653178</v>
       </c>
       <c r="M24">
-        <v>1.041790024110418</v>
+        <v>1.003830142977974</v>
       </c>
       <c r="N24">
-        <v>1.012474999455949</v>
+        <v>1.005882634316079</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020431477549766</v>
+        <v>0.9849271430533142</v>
       </c>
       <c r="D25">
-        <v>1.024877236290779</v>
+        <v>1.005981602230768</v>
       </c>
       <c r="E25">
-        <v>1.030774759382809</v>
+        <v>0.9986739167371091</v>
       </c>
       <c r="F25">
-        <v>1.04030216680145</v>
+        <v>0.9981762652174536</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027714648421421</v>
+        <v>1.037841436182872</v>
       </c>
       <c r="J25">
-        <v>1.026118421359177</v>
+        <v>1.009972638840552</v>
       </c>
       <c r="K25">
-        <v>1.027964493078835</v>
+        <v>1.018487765803749</v>
       </c>
       <c r="L25">
-        <v>1.033843165771968</v>
+        <v>1.011292853379016</v>
       </c>
       <c r="M25">
-        <v>1.043340613951886</v>
+        <v>1.010802958444747</v>
       </c>
       <c r="N25">
-        <v>1.012764204253668</v>
+        <v>1.007272741093695</v>
       </c>
     </row>
   </sheetData>
